--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_residual_mean_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_residual_mean_kernel.xlsx
@@ -10,6 +10,8 @@
     <sheet name="residual_mean_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="residual_mean_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="residual_mean_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="residual_mean_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="residual_mean_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1469,4 +1471,704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>75.59131134352373</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5827253905435403</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7559131134352374</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7395243246343379</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>76.10541613681779</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6352781943666439</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7610541613681779</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7564343400658913</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>81.30502859021271</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4863817955600098</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8130502859021271</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8132747007014203</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>75.11708578793935</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6738902320464453</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7511708578793934</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7427274590007251</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>56.82237735620551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.220206187292934</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.568223773562055</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5344964905451419</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>77.37194958433896</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6158971715718508</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7737194958433896</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7635363382353659</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>70.35441483057812</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7796705409263571</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7035441483057812</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6905289442421794</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>76.71398541509875</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6120600193738938</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7671398541509875</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7545424611847211</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>75.56388896097717</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5969491648177306</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7556388896097717</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.747850558167679</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>75.41449320495852</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6041655031343302</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7541449320495852</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7474074263367652</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>68.81097587349372</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9763870584312826</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6881097587349372</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6686803551949312</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>66.01138418152406</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9088074115104974</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6601138418152406</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6404467642612859</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>89.8568326715629</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2726858893331761</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.898568326715629</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8980405242971219</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>83.94077803441206</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4223302282238365</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8394077803441207</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.832448330376789</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.86707497469702</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1504018852836452</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9386707497469701</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9347569993073588</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>76.18979979642269</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6358557781610783</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.761897997964227</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7509797344367808</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>62.48574814661026</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8449459781249364</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6248574814661026</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.611658592076547</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>74.70298185970466</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6924487841005126</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7470298185970468</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7374128013255519</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>76.8311144560074</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5771301239728928</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7683111445600741</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7688454273877957</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>60.8487097639253</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9610705604155857</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.608487097639253</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5975055630611169</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>50.70779158989264</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.355664440818752</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5070779158989265</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4464325578908397</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>70.12949939013313</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7073692515492439</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7012949939013313</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6946582485597845</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>67.09910985389146</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8058231229583421</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6709910985389147</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6559935953716441</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>66.54910509606484</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7908064951499304</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6654910509606484</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6452281148275041</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>64.03333938874904</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7435598887503148</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6403333938874904</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6160163138536012</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>62.80045675135598</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8391734421253204</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6280045675135598</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6125371614026225</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>52.76421076306889</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.169391552110513</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5276421076306889</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4975615982837005</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>62.10417045130148</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9351420531670251</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6210417045130148</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6023693614031973</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>76.25619598785457</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5920379879573981</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7625619598785457</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7604412689142723</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>81.95027638647393</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4448921926940481</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8195027638647392</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8176292679735789</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>88.21737212259623</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.289821389131248</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8821737212259622</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8733699939274994</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>67.83200546717531</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7832851508684043</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6783200546717532</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6625106577506172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_residual_mean_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_residual_mean_kernel.xlsx
@@ -10,8 +10,10 @@
     <sheet name="residual_mean_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="residual_mean_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="residual_mean_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="residual_mean_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="residual_mean_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="residual_mean_sr_0.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="residual_mean_sr_0.2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="residual_mean_sr_0.15" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="residual_mean_sr_0.1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -471,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.83498127146429</v>
+        <v>96.19486327736399</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1613623484784815</v>
+        <v>0.1012374106707284</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9383498127146428</v>
+        <v>0.96194863277364</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9356790411035443</v>
+        <v>0.9614097115728188</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.98264690871028</v>
+        <v>94.30678466076697</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2663404429796974</v>
+        <v>0.2148585182772251</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9398264690871029</v>
+        <v>0.9430678466076696</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9362441085076536</v>
+        <v>0.9400500464856956</v>
       </c>
     </row>
     <row r="4">
@@ -509,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95.28023598820059</v>
+        <v>95.75221238938053</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1493273012592302</v>
+        <v>0.1227027697125815</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9528023598820059</v>
+        <v>0.9575221238938052</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9504450667080155</v>
+        <v>0.9559920712439391</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.69026548672566</v>
+        <v>91.65191740412979</v>
       </c>
       <c r="C5" t="n">
-        <v>0.129086412079414</v>
+        <v>0.2112969319219701</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9469026548672567</v>
+        <v>0.9165191740412979</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9450699284042614</v>
+        <v>0.9132893422805397</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.87174629538318</v>
+        <v>78.08917032154257</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3726705068411926</v>
+        <v>0.7250773693745335</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8387174629538319</v>
+        <v>0.7808917032154257</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8322344855680905</v>
+        <v>0.7549275274118417</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89.92084706615108</v>
+        <v>90.47526362684798</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3245093297562562</v>
+        <v>0.2552924979575134</v>
       </c>
       <c r="D7" t="n">
-        <v>0.899208470661511</v>
+        <v>0.9047526362684799</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8844386825019669</v>
+        <v>0.8977179447602867</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92.59587020648968</v>
+        <v>92.77286135693215</v>
       </c>
       <c r="C8" t="n">
-        <v>0.175281093713905</v>
+        <v>0.1820701314708761</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9259587020648968</v>
+        <v>0.9277286135693215</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9246997197152129</v>
+        <v>0.9266506564481564</v>
       </c>
     </row>
     <row r="9">
@@ -604,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94.15929203539824</v>
+        <v>91.47527227744185</v>
       </c>
       <c r="C9" t="n">
-        <v>0.139860421180371</v>
+        <v>0.2334312447089663</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9415929203539823</v>
+        <v>0.9147527227744184</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9413084822522597</v>
+        <v>0.9126314112564057</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.21533923303835</v>
+        <v>89.08675680585472</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1770635211199988</v>
+        <v>0.2939174400700722</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9321533923303835</v>
+        <v>0.8908675680585473</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9299490131906925</v>
+        <v>0.8864346965504468</v>
       </c>
     </row>
     <row r="11">
@@ -642,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>94.12979351032448</v>
+        <v>90.0589970501475</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1441921379165554</v>
+        <v>0.3126960460637444</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9412979351032448</v>
+        <v>0.9005899705014748</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9405319827663237</v>
+        <v>0.8829243969749999</v>
       </c>
     </row>
     <row r="12">
@@ -661,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.62536873156343</v>
+        <v>81.6815889410808</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6003229192567839</v>
+        <v>0.5833545082083826</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8262536873156343</v>
+        <v>0.816815889410808</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8188995298437725</v>
+        <v>0.8011471447383276</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86.10654071402001</v>
+        <v>85.54589572574157</v>
       </c>
       <c r="C13" t="n">
-        <v>0.541267584588301</v>
+        <v>0.6560439358892229</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8610654071402003</v>
+        <v>0.8554589572574157</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8466771676993829</v>
+        <v>0.837834253114624</v>
       </c>
     </row>
     <row r="14">
@@ -699,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.08554572271387</v>
+        <v>99.11504424778761</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04624777665580571</v>
+        <v>0.03296094082030739</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9908554572271386</v>
+        <v>0.9911504424778761</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9908822681620005</v>
+        <v>0.9911819761680235</v>
       </c>
     </row>
     <row r="15">
@@ -718,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.35120546025485</v>
+        <v>99.52802359882006</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01798943486149037</v>
+        <v>0.01347509850406728</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9935120546025484</v>
+        <v>0.9952802359882007</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9935500732916417</v>
+        <v>0.9953050122850989</v>
       </c>
     </row>
     <row r="16">
@@ -737,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.01769911504425</v>
+        <v>96.57817109144543</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09262018267112258</v>
+        <v>0.08118065650383718</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9601769911504425</v>
+        <v>0.9657817109144542</v>
       </c>
       <c r="E16" t="n">
-        <v>0.957758403914923</v>
+        <v>0.9652716952106225</v>
       </c>
     </row>
     <row r="17">
@@ -756,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.5911585163655</v>
+        <v>91.48752151835224</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2225427608905737</v>
+        <v>0.267973033343602</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9259115851636549</v>
+        <v>0.9148752151835223</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9218911969086494</v>
+        <v>0.9081845257667885</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +823,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.72392494744764</v>
+        <v>88.02688604572704</v>
       </c>
       <c r="C2" t="n">
-        <v>0.381826035445556</v>
+        <v>0.2882214316069924</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8572392494744765</v>
+        <v>0.8802688604572705</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8504734248059906</v>
+        <v>0.8778897954292481</v>
       </c>
     </row>
     <row r="3">
@@ -840,16 +842,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.84829453541985</v>
+        <v>85.08464606095208</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3728052022634074</v>
+        <v>0.3837110574832575</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8284829453541984</v>
+        <v>0.8508464606095207</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8226861498523237</v>
+        <v>0.8418324043407714</v>
       </c>
     </row>
     <row r="4">
@@ -859,16 +861,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.30068599209336</v>
+        <v>91.18219015735431</v>
       </c>
       <c r="C4" t="n">
-        <v>0.296390868901896</v>
+        <v>0.2780756074469536</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8930068599209335</v>
+        <v>0.911821901573543</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8933996952140776</v>
+        <v>0.9123086114281171</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +880,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.82716978520575</v>
+        <v>89.38174205659217</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2740608871400279</v>
+        <v>0.2885045857091124</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9082716978520576</v>
+        <v>0.8938174205659219</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9035597579807966</v>
+        <v>0.8920722875489171</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +899,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.72526578949645</v>
+        <v>73.93178141679427</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8214386009630592</v>
+        <v>0.7015556928391258</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7072526578949645</v>
+        <v>0.7393178141679426</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6836066884648717</v>
+        <v>0.723605641847341</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +918,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.90819989792298</v>
+        <v>85.61285132224327</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3104895479977131</v>
+        <v>0.5106692279689014</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8790819989792299</v>
+        <v>0.8561285132224328</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8758335970744729</v>
+        <v>0.8387043424298352</v>
       </c>
     </row>
     <row r="8">
@@ -935,16 +937,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>83.27675844946756</v>
+        <v>85.04770802515593</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4642014623697226</v>
+        <v>0.3744547195189322</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8327675844946756</v>
+        <v>0.8504770802515592</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8266087455576455</v>
+        <v>0.8506006786173967</v>
       </c>
     </row>
     <row r="9">
@@ -954,16 +956,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.85542262476319</v>
+        <v>89.26495903943807</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3291863628158657</v>
+        <v>0.26829279056498</v>
       </c>
       <c r="D9" t="n">
-        <v>0.868554226247632</v>
+        <v>0.8926495903943806</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8684118395260694</v>
+        <v>0.8898790872784694</v>
       </c>
     </row>
     <row r="10">
@@ -973,16 +975,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>84.40514191299232</v>
+        <v>87.3754963278229</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3823587897990365</v>
+        <v>0.2913897111235807</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8440514191299233</v>
+        <v>0.873754963278229</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8429560999784288</v>
+        <v>0.8679531354316069</v>
       </c>
     </row>
     <row r="11">
@@ -992,16 +994,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.48064429623093</v>
+        <v>84.5429458732342</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4337562966369053</v>
+        <v>0.3995852697000373</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8248064429623094</v>
+        <v>0.8454294587323419</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8186465337229268</v>
+        <v>0.8382156913057729</v>
       </c>
     </row>
     <row r="12">
@@ -1011,16 +1013,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>76.46432927620482</v>
+        <v>78.47057500497409</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7593353463244663</v>
+        <v>0.6336573897356478</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7646432927620481</v>
+        <v>0.784705750049741</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7691313472561114</v>
+        <v>0.76828537068075</v>
       </c>
     </row>
     <row r="13">
@@ -1030,16 +1032,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.62016107405773</v>
+        <v>76.49330876564676</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5640333088580519</v>
+        <v>0.6558782257605345</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8062016107405773</v>
+        <v>0.7649330876564676</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8015357705656652</v>
+        <v>0.7592117911950027</v>
       </c>
     </row>
     <row r="14">
@@ -1049,16 +1051,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.25663716814159</v>
+        <v>95.30973451327434</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08064845370411908</v>
+        <v>0.1250204026496552</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9725663716814159</v>
+        <v>0.9530973451327434</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9725409603111205</v>
+        <v>0.9527121895888693</v>
       </c>
     </row>
     <row r="15">
@@ -1068,16 +1070,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>95.95870206489676</v>
+        <v>92.94985250737463</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09629141191020002</v>
+        <v>0.18487019256645</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9595870206489675</v>
+        <v>0.9294985250737463</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9595523764103129</v>
+        <v>0.9216491398246959</v>
       </c>
     </row>
     <row r="16">
@@ -1087,16 +1089,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.07669616519175</v>
+        <v>93.59882005899706</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1035016549409685</v>
+        <v>0.1663413587059874</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9607669616519174</v>
+        <v>0.9359882005899705</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9602145952342823</v>
+        <v>0.9289591649848129</v>
       </c>
     </row>
     <row r="17">
@@ -1106,16 +1108,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>86.04853559863551</v>
+        <v>86.41823314503874</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3780216153380664</v>
+        <v>0.3700151775586766</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8604853559863552</v>
+        <v>0.8641823314503874</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8566105054636731</v>
+        <v>0.8575919554621072</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1173,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76.87938476976444</v>
+        <v>83.42788432425887</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6162630866281689</v>
+        <v>0.3788471697548327</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7687938476976445</v>
+        <v>0.8342788432425886</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7613679327243909</v>
+        <v>0.8346973297139044</v>
       </c>
     </row>
     <row r="3">
@@ -1190,16 +1192,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.75941833406863</v>
+        <v>83.34821235477816</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6052986359961021</v>
+        <v>0.4384688986213102</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7875941833406863</v>
+        <v>0.8334821235477815</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7690416849893696</v>
+        <v>0.8147571536957596</v>
       </c>
     </row>
     <row r="4">
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.90455799790655</v>
+        <v>86.78604486197978</v>
       </c>
       <c r="C4" t="n">
-        <v>0.347660450876477</v>
+        <v>0.3809576480804632</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8690455799790655</v>
+        <v>0.8678604486197978</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8669301276739303</v>
+        <v>0.8657223706134396</v>
       </c>
     </row>
     <row r="5">
@@ -1228,16 +1230,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.18842723552972</v>
+        <v>79.00154845630152</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5191001020061473</v>
+        <v>0.611765386373736</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8218842723552973</v>
+        <v>0.7900154845630152</v>
       </c>
       <c r="E5" t="n">
-        <v>0.822020360760272</v>
+        <v>0.771306951501469</v>
       </c>
     </row>
     <row r="6">
@@ -1247,16 +1249,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.25464753155305</v>
+        <v>67.74504969766174</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8358241174059611</v>
+        <v>1.008593257175138</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6725464753155304</v>
+        <v>0.6774504969766174</v>
       </c>
       <c r="E6" t="n">
-        <v>0.650830187578772</v>
+        <v>0.6506923548629285</v>
       </c>
     </row>
     <row r="7">
@@ -1266,16 +1268,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.46047111134179</v>
+        <v>80.72128651631934</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5584067541795472</v>
+        <v>0.5922170556771259</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8046047111134179</v>
+        <v>0.8072128651631936</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7921662394174082</v>
+        <v>0.7946529112958278</v>
       </c>
     </row>
     <row r="8">
@@ -1285,16 +1287,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.77574200468862</v>
+        <v>85.64909731053038</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5848201969483247</v>
+        <v>0.3323121133260429</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7577574200468862</v>
+        <v>0.8564909731053036</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7486177420765678</v>
+        <v>0.8533932461908111</v>
       </c>
     </row>
     <row r="9">
@@ -1304,16 +1306,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.80422841028037</v>
+        <v>79.30310815837507</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5741101275353382</v>
+        <v>0.5262424678813356</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7880422841028036</v>
+        <v>0.7930310815837507</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7815925371094642</v>
+        <v>0.790566012342155</v>
       </c>
     </row>
     <row r="10">
@@ -1323,16 +1325,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.90140053114646</v>
+        <v>73.2782290504243</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4218274284076567</v>
+        <v>0.7283419551715876</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8190140053114646</v>
+        <v>0.7327822905042432</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8194076991805698</v>
+        <v>0.7320583664168019</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1344,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.67619097051012</v>
+        <v>80.32638690646112</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5800049376179232</v>
+        <v>0.5786242824581375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7767619097051013</v>
+        <v>0.8032638690646113</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7749743500796697</v>
+        <v>0.7850456464294678</v>
       </c>
     </row>
     <row r="12">
@@ -1361,16 +1363,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>69.33174162406249</v>
+        <v>71.07457676969524</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8759865752772991</v>
+        <v>0.8693681964262699</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6933174162406249</v>
+        <v>0.7107457676969524</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6876114446073456</v>
+        <v>0.7070687093064831</v>
       </c>
     </row>
     <row r="13">
@@ -1380,16 +1382,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.36035778856218</v>
+        <v>73.55522106592618</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5796509863187869</v>
+        <v>0.7379362913469473</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7736035778856218</v>
+        <v>0.7355522106592618</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7660602531877434</v>
+        <v>0.7326087467062472</v>
       </c>
     </row>
     <row r="14">
@@ -1399,16 +1401,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.92622773553404</v>
+        <v>91.50442477876106</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2819496402478156</v>
+        <v>0.2235703481909392</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9192622773553405</v>
+        <v>0.9150442477876106</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9168067781306283</v>
+        <v>0.9140111254720722</v>
       </c>
     </row>
     <row r="15">
@@ -1418,16 +1420,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>89.35362762653656</v>
+        <v>91.23945708872914</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2443505506871588</v>
+        <v>0.2277812594829205</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8935362762653657</v>
+        <v>0.9123945708872914</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8903575304646225</v>
+        <v>0.9129704534696927</v>
       </c>
     </row>
     <row r="16">
@@ -1437,16 +1439,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.28023598820059</v>
+        <v>94.07131549580879</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1395373864265518</v>
+        <v>0.1705747403359661</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9528023598820059</v>
+        <v>0.9407131549580878</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9506557271638545</v>
+        <v>0.9336092415968045</v>
       </c>
     </row>
     <row r="17">
@@ -1456,16 +1458,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>80.65711064397902</v>
+        <v>81.40212285573404</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5176527317706172</v>
+        <v>0.5203734046868501</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8065711064397902</v>
+        <v>0.8140212285573406</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7998960396763072</v>
+        <v>0.8062107079742576</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +1523,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.59131134352373</v>
+        <v>73.49968425332399</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5827253905435403</v>
+        <v>0.7599189107965988</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7559131134352374</v>
+        <v>0.7349968425332399</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7395243246343379</v>
+        <v>0.7168138566698817</v>
       </c>
     </row>
     <row r="3">
@@ -1540,16 +1542,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.10541613681779</v>
+        <v>79.23381690153029</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6352781943666439</v>
+        <v>0.5606032062632342</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7610541613681779</v>
+        <v>0.7923381690153029</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7564343400658913</v>
+        <v>0.7841287536379411</v>
       </c>
     </row>
     <row r="4">
@@ -1559,16 +1561,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.30502859021271</v>
+        <v>81.83323385150391</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4863817955600098</v>
+        <v>0.5822435037232936</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8130502859021271</v>
+        <v>0.8183323385150392</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8132747007014203</v>
+        <v>0.8101888420115048</v>
       </c>
     </row>
     <row r="5">
@@ -1578,16 +1580,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.11708578793935</v>
+        <v>76.6497980086333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6738902320464453</v>
+        <v>0.6575387955643237</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7511708578793934</v>
+        <v>0.766497980086333</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7427274590007251</v>
+        <v>0.7576974970498621</v>
       </c>
     </row>
     <row r="6">
@@ -1597,16 +1599,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.82237735620551</v>
+        <v>62.66775664149344</v>
       </c>
       <c r="C6" t="n">
-        <v>1.220206187292934</v>
+        <v>1.13626664027106</v>
       </c>
       <c r="D6" t="n">
-        <v>0.568223773562055</v>
+        <v>0.6266775664149343</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5344964905451419</v>
+        <v>0.5927657704352058</v>
       </c>
     </row>
     <row r="7">
@@ -1616,16 +1618,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.37194958433896</v>
+        <v>79.04419588404744</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6158971715718508</v>
+        <v>0.6000598405798276</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7737194958433896</v>
+        <v>0.7904419588404744</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7635363382353659</v>
+        <v>0.7808415591552935</v>
       </c>
     </row>
     <row r="8">
@@ -1635,16 +1637,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70.35441483057812</v>
+        <v>68.43943286706632</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7796705409263571</v>
+        <v>0.9054876221576705</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7035441483057812</v>
+        <v>0.6843943286706633</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6905289442421794</v>
+        <v>0.6552980256590938</v>
       </c>
     </row>
     <row r="9">
@@ -1654,16 +1656,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76.71398541509875</v>
+        <v>73.41430289189353</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6120600193738938</v>
+        <v>0.7395700402829486</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7671398541509875</v>
+        <v>0.7341430289189353</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7545424611847211</v>
+        <v>0.7265874774891975</v>
       </c>
     </row>
     <row r="10">
@@ -1673,16 +1675,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.56388896097717</v>
+        <v>78.03432555644945</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5969491648177306</v>
+        <v>0.5821265448816121</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7556388896097717</v>
+        <v>0.7803432555644945</v>
       </c>
       <c r="E10" t="n">
-        <v>0.747850558167679</v>
+        <v>0.7672035322915518</v>
       </c>
     </row>
     <row r="11">
@@ -1692,16 +1694,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.41449320495852</v>
+        <v>81.60157094784557</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6041655031343302</v>
+        <v>0.4584509127307683</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7541449320495852</v>
+        <v>0.8160157094784557</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7474074263367652</v>
+        <v>0.8132030722719623</v>
       </c>
     </row>
     <row r="12">
@@ -1711,16 +1713,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>68.81097587349372</v>
+        <v>68.13268280867482</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9763870584312826</v>
+        <v>1.062278580913941</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6881097587349372</v>
+        <v>0.6813268280867482</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6686803551949312</v>
+        <v>0.6714329741730449</v>
       </c>
     </row>
     <row r="13">
@@ -1730,16 +1732,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.01138418152406</v>
+        <v>72.28401629771884</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9088074115104974</v>
+        <v>0.8343104543785254</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6601138418152406</v>
+        <v>0.7228401629771884</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6404467642612859</v>
+        <v>0.7062069591521525</v>
       </c>
     </row>
     <row r="14">
@@ -1749,16 +1751,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.8568326715629</v>
+        <v>90.15250996980942</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2726858893331761</v>
+        <v>0.2702296666485685</v>
       </c>
       <c r="D14" t="n">
-        <v>0.898568326715629</v>
+        <v>0.9015250996980942</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8980405242971219</v>
+        <v>0.900391818450224</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1770,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>83.94077803441206</v>
+        <v>88.44661285997283</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4223302282238365</v>
+        <v>0.340491264530768</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8394077803441207</v>
+        <v>0.8844661285997283</v>
       </c>
       <c r="E15" t="n">
-        <v>0.832448330376789</v>
+        <v>0.8818067243821259</v>
       </c>
     </row>
     <row r="16">
@@ -1787,16 +1789,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.86707497469702</v>
+        <v>94.27728613569322</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1504018852836452</v>
+        <v>0.153705683192311</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9386707497469701</v>
+        <v>0.9427728613569322</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9347569993073588</v>
+        <v>0.9402975896946669</v>
       </c>
     </row>
     <row r="17">
@@ -1806,16 +1808,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.18979979642269</v>
+        <v>77.84741505837709</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6358557781610783</v>
+        <v>0.64288544446103</v>
       </c>
       <c r="D17" t="n">
-        <v>0.761897997964227</v>
+        <v>0.7784741505837709</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7509797344367808</v>
+        <v>0.7669909635015807</v>
       </c>
     </row>
   </sheetData>
@@ -1871,16 +1873,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62.48574814661026</v>
+        <v>78.12835751174319</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8449459781249364</v>
+        <v>0.524304649233818</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6248574814661026</v>
+        <v>0.7812835751174318</v>
       </c>
       <c r="E2" t="n">
-        <v>0.611658592076547</v>
+        <v>0.774751827488913</v>
       </c>
     </row>
     <row r="3">
@@ -1890,16 +1892,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.70298185970466</v>
+        <v>75.24840180278376</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6924487841005126</v>
+        <v>0.5868363038326303</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7470298185970468</v>
+        <v>0.7524840180278376</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7374128013255519</v>
+        <v>0.7449774651843422</v>
       </c>
     </row>
     <row r="4">
@@ -1909,16 +1911,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.8311144560074</v>
+        <v>83.79259336153427</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5771301239728928</v>
+        <v>0.4277705173939467</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7683111445600741</v>
+        <v>0.8379259336153426</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7688454273877957</v>
+        <v>0.8357614389921657</v>
       </c>
     </row>
     <row r="5">
@@ -1928,16 +1930,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60.8487097639253</v>
+        <v>75.94771581069041</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9610705604155857</v>
+        <v>0.6576595130066077</v>
       </c>
       <c r="D5" t="n">
-        <v>0.608487097639253</v>
+        <v>0.7594771581069041</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5975055630611169</v>
+        <v>0.7497756898767559</v>
       </c>
     </row>
     <row r="6">
@@ -1947,16 +1949,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.70779158989264</v>
+        <v>59.56833536622289</v>
       </c>
       <c r="C6" t="n">
-        <v>1.355664440818752</v>
+        <v>1.284641479390363</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5070779158989265</v>
+        <v>0.5956833536622289</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4464325578908397</v>
+        <v>0.5490109307407632</v>
       </c>
     </row>
     <row r="7">
@@ -1966,16 +1968,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70.12949939013313</v>
+        <v>75.31051306672202</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7073692515492439</v>
+        <v>0.7123333711177111</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7012949939013313</v>
+        <v>0.7531051306672203</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6946582485597845</v>
+        <v>0.736218626118761</v>
       </c>
     </row>
     <row r="8">
@@ -1985,16 +1987,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.09910985389146</v>
+        <v>73.91508577063816</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8058231229583421</v>
+        <v>0.6183197168322901</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6709910985389147</v>
+        <v>0.7391508577063816</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6559935953716441</v>
+        <v>0.7264947316856951</v>
       </c>
     </row>
     <row r="9">
@@ -2004,16 +2006,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>66.54910509606484</v>
+        <v>78.91807022552098</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7908064951499304</v>
+        <v>0.5422313620646795</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6654910509606484</v>
+        <v>0.7891807022552098</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6452281148275041</v>
+        <v>0.7829583694383528</v>
       </c>
     </row>
     <row r="10">
@@ -2023,16 +2025,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03333938874904</v>
+        <v>76.71104421318523</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7435598887503148</v>
+        <v>0.5572047795789936</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6403333938874904</v>
+        <v>0.7671104421318524</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6160163138536012</v>
+        <v>0.7521583780858719</v>
       </c>
     </row>
     <row r="11">
@@ -2042,16 +2044,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.80045675135598</v>
+        <v>67.48276369172744</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8391734421253204</v>
+        <v>0.9389800902144392</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6280045675135598</v>
+        <v>0.6748276369172743</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6125371614026225</v>
+        <v>0.6608204352286066</v>
       </c>
     </row>
     <row r="12">
@@ -2061,16 +2063,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>52.76421076306889</v>
+        <v>61.71584529277935</v>
       </c>
       <c r="C12" t="n">
-        <v>1.169391552110513</v>
+        <v>1.03351921265324</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5276421076306889</v>
+        <v>0.6171584529277935</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4975615982837005</v>
+        <v>0.5987722683016404</v>
       </c>
     </row>
     <row r="13">
@@ -2080,16 +2082,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.10417045130148</v>
+        <v>68.27775326776182</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9351420531670251</v>
+        <v>0.8955178221066793</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6210417045130148</v>
+        <v>0.6827775326776183</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6023693614031973</v>
+        <v>0.6623818061695894</v>
       </c>
     </row>
     <row r="14">
@@ -2099,16 +2101,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>76.25619598785457</v>
+        <v>84.07702488775854</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5920379879573981</v>
+        <v>0.499626137316227</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7625619598785457</v>
+        <v>0.8407702488775854</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7604412689142723</v>
+        <v>0.838082573200899</v>
       </c>
     </row>
     <row r="15">
@@ -2118,16 +2120,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>81.95027638647393</v>
+        <v>86.29823787403005</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4448921926940481</v>
+        <v>0.3339394311537035</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8195027638647392</v>
+        <v>0.8629823787403005</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8176292679735789</v>
+        <v>0.8623277147833462</v>
       </c>
     </row>
     <row r="16">
@@ -2137,16 +2139,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.21737212259623</v>
+        <v>94.66405418731996</v>
       </c>
       <c r="C16" t="n">
-        <v>0.289821389131248</v>
+        <v>0.1474759832967417</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8821737212259622</v>
+        <v>0.9466405418731997</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8733699939274994</v>
+        <v>0.9459526991496997</v>
       </c>
     </row>
     <row r="17">
@@ -2156,16 +2158,716 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>67.83200546717531</v>
+        <v>76.00371975536122</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7832851508684043</v>
+        <v>0.6506906912794714</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6783200546717532</v>
+        <v>0.760037197553612</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6625106577506172</v>
+        <v>0.7480296636296935</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>66.60862118184414</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8015222102403641</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6660862118184413</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6575601895495835</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>68.83018019187017</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.709429883180807</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6883018019187017</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6741934714161644</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>77.86390885734306</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5564242717654755</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7786390885734307</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7717495514010088</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>66.78699642730473</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8825265402595202</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6678699642730473</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6610967796696791</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>58.60128547824809</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.11952407459418</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5860128547824808</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5502202329382085</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>69.80207441240842</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9100970776130757</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6980207441240841</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6768458442292624</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>71.33651675187501</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6741879671812058</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7133651675187502</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7107428316259402</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>68.61106064931357</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8008376239178082</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6861106064931357</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6765015320967009</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>68.29159421794307</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7438418731093407</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6829159421794306</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6781577357660166</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>70.97388385712679</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7050522180895011</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.709738838571268</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7054834462138462</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>54.78075069853545</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.205826266109943</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5478075069853545</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5392239310605025</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>65.46060087024975</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8337603139380614</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6546060087024974</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6359443012249014</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>85.67236740802255</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3675921708966295</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8567236740802257</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8556180448940534</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>84.60254846495212</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.394625629526369</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8460254846495211</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8433588142244577</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.25521847074802</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1774578670253201</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9325521847074801</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9310414176590838</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>71.43184052918566</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7255137324965067</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7143184052918568</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.704515874931294</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>63.49267727229475</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8379705309867859</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6349267727229474</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6067032198086171</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>71.03089127068573</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6991702228784561</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7103089127068574</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7000333654775924</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>76.62324068547306</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5858920363088449</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7662324068547306</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7652710044114677</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>63.74934039221792</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8530764703949293</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6374934039221792</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6281863871008444</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>54.49839531483836</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.089701025684674</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5449839531483837</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5017205366737088</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>66.03301066618224</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8315937414765358</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6603301066618223</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6602932963257155</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>63.2610143686364</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9291949098464102</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.632610143686364</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6126976558947849</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>71.3483680654677</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7027060997982819</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7134836806546769</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6945167154573136</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>59.95683353662228</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8486436599555114</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5995683353662229</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5744979377546218</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>60.70433135234733</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9026815481483936</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6070433135234734</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5883292817076173</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>51.06194690265487</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.181798320263624</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5106194690265486</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4806813622923263</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>61.07570134689746</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9260250161091486</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6107570134689746</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5937917418859768</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>81.90537980432357</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5069871875147025</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8190537980432356</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8167355592196062</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>81.3642851581761</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5176002032521561</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8136428515817611</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8084234322414066</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>89.3084715265703</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3233924406270186</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.893084715265703</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8913061126778427</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>67.69425917755922</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.782428894216365</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6769425917755921</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6615458405952961</v>
       </c>
     </row>
   </sheetData>
